--- a/Coverage Map - Free Space PL Model/Cell_Parameter.xlsx
+++ b/Coverage Map - Free Space PL Model/Cell_Parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Cell Coverage Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Coverage Map - Free Space PL Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478D36D-52CD-4B48-997B-CB5E6A625653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="6_{659695D7-C131-4C96-991A-B5E8ED874541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A82637A4-330E-4740-8DF5-5AAA569D60B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/Coverage Map - Free Space PL Model/Cell_Parameter.xlsx
+++ b/Coverage Map - Free Space PL Model/Cell_Parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Coverage Map - Free Space PL Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Coverage Map - Measurement Based PL Model (n77)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="6_{659695D7-C131-4C96-991A-B5E8ED874541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A82637A4-330E-4740-8DF5-5AAA569D60B4}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="6_{659695D7-C131-4C96-991A-B5E8ED874541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1510D3B7-10F5-4E20-BFC7-83836199A8F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>270</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="C7">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="D7">
-        <v>2500</v>
+        <v>3900</v>
       </c>
     </row>
   </sheetData>
